--- a/策划需求表/物体属性id策划.xls.xlsx
+++ b/策划需求表/物体属性id策划.xls.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>物品属性id大全</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,108 @@
   </si>
   <si>
     <t>Itemid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径</t>
+  </si>
+  <si>
+    <t>获得途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害15x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级塔/商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速＋20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害＋20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱/商店</t>
+  </si>
+  <si>
+    <t>宝箱/商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹会爆炸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -338,56 +446,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +509,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CC00"/>
       <color rgb="FFBA8CDC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF009900"/>
-      <color rgb="FF99CC00"/>
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
@@ -679,417 +790,898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2"/>
+      <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="M3" s="15" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="R3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="Z3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="3"/>
-      <c r="Y3" s="15" t="s">
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+    </row>
+    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="U7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3" t="s">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="12" t="s">
+      <c r="AC7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>999</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3" t="s">
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="AK7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM7" s="2"/>
+    </row>
+    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+    </row>
+    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
+      <c r="S9" s="7"/>
+      <c r="T9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="U9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3" t="s">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="13" t="s">
+      <c r="AC9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>999</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="s">
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="AK9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM9" s="2"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="8"/>
+      <c r="T11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="U11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="Y3:AB4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="S3:V4"/>
-    <mergeCell ref="G3:J4"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="A3:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划需求表/物体属性id策划.xls.xlsx
+++ b/策划需求表/物体属性id策划.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepSea\策划需求表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5D564-C141-493F-BA7E-568D652F16ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974C52E3-0CD9-4CFC-A364-C2FF61FCB77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="17880" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="350" yWindow="3050" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>背包和加成物品属性id大全</t>
   </si>
@@ -260,22 +260,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>前进</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>后退</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>投掷物品/道具</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -361,6 +345,54 @@
   </si>
   <si>
     <t>q</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速移动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>左/游动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>右/游动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退/游动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进/游动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战武器攻击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>（可以丢手雷和道具，按q调出转盘然后选择道具，播放预备投掷pose</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键掷出）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,6 +660,9 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,8 +705,8 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,25 +1001,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -995,23 +1030,23 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1022,12 +1057,12 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
@@ -1055,10 +1090,10 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1078,10 +1113,10 @@
       <c r="AK4" s="3"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1874,517 +1909,517 @@
       <c r="AL18" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="A25" s="22">
         <v>0.05</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24">
         <v>0.2</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24">
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25">
         <v>0.05</v>
       </c>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="25">
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26">
         <v>0.3</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27">
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="28">
         <v>0.1</v>
       </c>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28"/>
-      <c r="AN29" s="28"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="16"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="15"/>
-      <c r="AN32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="15"/>
-      <c r="AN33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2407,125 +2442,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492ABDBB-5A3F-44E5-90C1-551CD7B2C5F7}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="I5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="G11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="I13" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="C19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="29" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/策划需求表/物体属性id策划.xls.xlsx
+++ b/策划需求表/物体属性id策划.xls.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepSea\策划需求表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974C52E3-0CD9-4CFC-A364-C2FF61FCB77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF6B1A-32AE-4EF2-AAA3-B4AB939F945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="3050" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="物品属性id" sheetId="1" r:id="rId1"/>
+    <sheet name="关卡物体随机玩法" sheetId="3" r:id="rId2"/>
+    <sheet name="按键策划" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="174">
   <si>
     <t>背包和加成物品属性id大全</t>
   </si>
@@ -394,13 +395,270 @@
   <si>
     <t>右键掷出）</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机物体交互方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱿鱼巡航升级塔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落枪械配件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供枪械配件/武器/手榴弹/治愈包子袋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈孢子袋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>O002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱/商店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭鱼补给仓（宝箱）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械配件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械配件/武器/手榴弹/治愈包子袋</t>
+  </si>
+  <si>
+    <t>珊瑚丛</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬行怪物和游动怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成爬行咬人怪物和游动咬人怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>气囊卵团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成远程攻击怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击怪物</t>
+  </si>
+  <si>
+    <t>生成权重</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3配件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~10只怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽比特虫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U005</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>普氏刺豚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U006</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕类陷阱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸类陷阱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重油桶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U007</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型核电球</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹类陷阱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>远洋鲸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成皱鳃鲨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>领地类泳动怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>货仓</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机物品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾/收集物/各种道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机5种物品堆放</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍缩塔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U011</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*玩家也受影响</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*收集物暂定一个可放入背包的小方块/道具则为配件/武器/手榴弹/治愈孢子（袋）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5直径10米高度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能/玩法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品制造机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0012</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买物品/制作物品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种道具</t>
+  </si>
+  <si>
+    <t>5个可购买道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*特定区域生成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +740,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -614,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +930,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,8 +975,11 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,9 +989,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF99CC00"/>
       <color rgb="FFBA8CDC"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF009900"/>
       <color rgb="FFFF66CC"/>
     </mruColors>
@@ -994,32 +1267,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1030,23 +1303,23 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1057,12 +1330,12 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
@@ -1090,10 +1363,10 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="1"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1113,10 +1386,10 @@
       <c r="AK4" s="3"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1570,12 +1843,22 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="32" t="s">
+        <v>118</v>
+      </c>
       <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
+      <c r="AJ11" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>99</v>
+      </c>
+      <c r="AM11" s="31" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1909,517 +2192,517 @@
       <c r="AL18" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="23">
         <v>0.05</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25">
         <v>0.2</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="26">
         <v>0.05</v>
       </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="26">
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27">
         <v>0.3</v>
       </c>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="28">
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="29">
         <v>0.1</v>
       </c>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="30"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="16"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
-      <c r="AN31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2441,10 +2724,309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9EB3B9-D2DF-4932-877D-28E9593E792C}">
+  <dimension ref="A1:U36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" t="s">
+        <v>171</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492ABDBB-5A3F-44E5-90C1-551CD7B2C5F7}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -2515,12 +3097,12 @@
       <c r="G7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="30"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2532,12 +3114,12 @@
       <c r="G9" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="30"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -2549,12 +3131,12 @@
       <c r="G11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="30"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -2566,7 +3148,7 @@
       <c r="G13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="16">
         <v>3</v>
       </c>
     </row>

--- a/策划需求表/物体属性id策划.xls.xlsx
+++ b/策划需求表/物体属性id策划.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepSea\策划需求表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF6B1A-32AE-4EF2-AAA3-B4AB939F945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB51D9-7B2E-4D39-B202-91C6DD59B332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="192">
   <si>
     <t>背包和加成物品属性id大全</t>
   </si>
@@ -457,9 +457,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>枪械配件/武器/手榴弹/治愈包子袋</t>
-  </si>
-  <si>
     <t>珊瑚丛</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -476,10 +473,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>气囊卵团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>U004</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -583,10 +576,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>垃圾/收集物/各种道具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>随机5种物品堆放</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -650,7 +639,88 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>*特定区域生成</t>
+    <t>*特定区域生成1个</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*特定区域生成2个</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0013</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0014</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*模仿类似雨中冒险</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉没机枪</t>
+  </si>
+  <si>
+    <t>U022</t>
+  </si>
+  <si>
+    <t>定点水下机枪</t>
+  </si>
+  <si>
+    <t>定点水下机枪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬浮虫巢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蚀墙</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏房间门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾/收集物/各种道具/护具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械配件/武器/手榴弹/治愈包子袋/护具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏房间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹炸碎</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*类似以撒集合，先不用做隐藏房间，先做准备</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +936,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -881,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +1015,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,10 +1063,34 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,31 +1380,31 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1303,23 +1415,23 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1330,12 +1442,12 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
@@ -1363,10 +1475,10 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1386,10 +1498,10 @@
       <c r="AK4" s="3"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1843,20 +1955,20 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="32" t="s">
+      <c r="AH11" s="18" t="s">
         <v>118</v>
       </c>
       <c r="AI11" s="1"/>
-      <c r="AJ11" s="31" t="s">
+      <c r="AJ11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="AK11" s="31" t="s">
+      <c r="AK11" s="17" t="s">
         <v>120</v>
       </c>
       <c r="AL11" s="1">
         <v>99</v>
       </c>
-      <c r="AM11" s="31" t="s">
+      <c r="AM11" s="17" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2192,517 +2304,517 @@
       <c r="AL18" s="1"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+      <c r="A25" s="25">
         <v>0.05</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27">
         <v>0.2</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="26">
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28">
         <v>0.05</v>
       </c>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27">
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="29">
         <v>0.3</v>
       </c>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="29">
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="31">
         <v>0.1</v>
       </c>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2725,20 +2837,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9EB3B9-D2DF-4932-877D-28E9593E792C}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="A3" sqref="A3:Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
@@ -2746,275 +2858,941 @@
         <v>111</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>114</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="37"/>
+      <c r="S3" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="R5" s="37"/>
+      <c r="S5" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T7" s="37"/>
+      <c r="U7" s="36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="T9" s="37"/>
+      <c r="U9" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+    </row>
+    <row r="11" spans="1:25" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="R13" s="37"/>
+      <c r="S13" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="T13" s="37"/>
+      <c r="U13" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="15" t="s">
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="V21" s="34"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="V23" s="34"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="R9" s="15" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="U9" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" t="s">
-        <v>132</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="R23" s="15" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="V34" s="42"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="41" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="V36" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3027,7 +3805,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/策划需求表/物体属性id策划.xls.xlsx
+++ b/策划需求表/物体属性id策划.xls.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepSea\策划需求表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB51D9-7B2E-4D39-B202-91C6DD59B332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="物品属性id" sheetId="1" r:id="rId1"/>
     <sheet name="关卡物体随机玩法" sheetId="3" r:id="rId2"/>
     <sheet name="按键策划" sheetId="2" r:id="rId3"/>
+    <sheet name="背包类策划" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
   <si>
     <t>背包和加成物品属性id大全</t>
   </si>
@@ -425,10 +425,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>掉落枪械配件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>提供枪械配件/武器/手榴弹/治愈包子袋</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -453,281 +449,309 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>珊瑚丛</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬行怪物和游动怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成爬行咬人怪物和游动咬人怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成远程攻击怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击怪物</t>
+  </si>
+  <si>
+    <t>生成权重</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3配件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~10只怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽比特虫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U005</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>普氏刺豚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U006</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕类陷阱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸类陷阱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重油桶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U007</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型核电球</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U008</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹类陷阱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>远洋鲸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U009</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成皱鳃鲨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>领地类泳动怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>货仓</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U010</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机物品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机5种物品堆放</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍缩塔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U011</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*玩家也受影响</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*收集物暂定一个可放入背包的小方块/道具则为配件/武器/手榴弹/治愈孢子（袋）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5直径10米高度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能/玩法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品制造机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0012</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买物品/制作物品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种道具</t>
+  </si>
+  <si>
+    <t>5个可购买道具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*特定区域生成1个</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*特定区域生成2个</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0013</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战怪物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U0014</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*模仿类似雨中冒险</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉没机枪</t>
+  </si>
+  <si>
+    <t>U022</t>
+  </si>
+  <si>
+    <t>定点水下机枪</t>
+  </si>
+  <si>
+    <t>定点水下机枪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬浮虫巢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蚀墙</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>U100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏房间门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾/收集物/各种道具/护具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械配件/武器/手榴弹/治愈包子袋/护具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏房间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹炸碎</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>*类似以撒集合，先不用做隐藏房间，先做准备</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包：只作为承载物品和道具作用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有四种词条，伤害5%  攻击速度5%  血量10%  护甲10%（绿）并且只能在升级塔进行升级，或是刷新词条</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备栏：防具都可以升级，等级为民用级（绿1词条）  商业级（蓝2词条）军用级（紫3词条）科研级（红4词条）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落枪械配件/升级配件/升级护甲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>枪械配件</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>珊瑚丛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬行怪物和游动怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成爬行咬人怪物和游动咬人怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U004</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成远程攻击怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程攻击怪物</t>
-  </si>
-  <si>
-    <t>生成权重</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3配件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1道具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~10只怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>纽比特虫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U005</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>普氏刺豚</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U006</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>缠绕类陷阱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸类陷阱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>重油桶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U007</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小型核电球</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U008</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻痹类陷阱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>远洋鲸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U009</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成皱鳃鲨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>领地类泳动怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>货仓</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U010</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机物品</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机5种物品堆放</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>坍缩塔</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U011</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚集怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10米</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*玩家也受影响</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*收集物暂定一个可放入背包的小方块/道具则为配件/武器/手榴弹/治愈孢子（袋）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5米</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5直径10米高度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能/玩法</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品制造机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U0012</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买物品/制作物品</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种道具</t>
-  </si>
-  <si>
-    <t>5个可购买道具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*特定区域生成1个</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*特定区域生成2个</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U0013</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战怪物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U0014</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*模仿类似雨中冒险</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉没机枪</t>
-  </si>
-  <si>
-    <t>U022</t>
-  </si>
-  <si>
-    <t>定点水下机枪</t>
-  </si>
-  <si>
-    <t>定点水下机枪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬浮虫巢</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>海蚀墙</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>U100</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏房间门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾/收集物/各种道具/护具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪械配件/武器/手榴弹/治愈包子袋/护具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏房间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹炸碎</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>*类似以撒集合，先不用做隐藏房间，先做准备</t>
+    <t>道具：道具合成和升级只能在升级塔进行</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1021,6 +1045,36 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,36 +1116,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,6 +1141,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="238125"/>
+          <a:ext cx="5696724" cy="3255271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>384822</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="285750"/>
+          <a:ext cx="5852172" cy="3291847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1376,35 +1493,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1414,24 +1531,24 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1441,13 +1558,13 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
@@ -1474,11 +1591,11 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
     </row>
-    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="1"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1497,13 +1614,13 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1744,7 +1861,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +1961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1884,7 +2001,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1956,23 +2073,23 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK11" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="AK11" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="AL11" s="1">
         <v>99</v>
       </c>
       <c r="AM11" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2012,7 +2129,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2078,7 +2195,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2118,7 +2235,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2288,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2210,7 +2327,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
@@ -2264,7 +2381,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2303,518 +2420,518 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" s="35">
         <v>0.05</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37">
         <v>0.2</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28">
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38">
         <v>0.05</v>
       </c>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="29">
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="39">
         <v>0.3</v>
       </c>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="31">
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="41">
         <v>0.1</v>
       </c>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="B30" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="19"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-    </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="19"/>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2836,21 +2953,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9EB3B9-D2DF-4932-877D-28E9593E792C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
@@ -2858,941 +2975,941 @@
         <v>111</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>114</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R5" s="23"/>
+      <c r="S5" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" s="23"/>
+      <c r="U7" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="23"/>
+      <c r="S9" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" s="23"/>
+      <c r="U9" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+    </row>
+    <row r="11" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R13" s="23"/>
+      <c r="S13" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="T13" s="23"/>
+      <c r="U13" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="36" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="36" t="s">
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="V21" s="20"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="V23" s="20"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="T9" s="37"/>
-      <c r="U9" s="36" t="s">
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-    </row>
-    <row r="11" spans="1:25" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="V21" s="34"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="V23" s="34"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39" t="s">
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="39" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="V34" s="28"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="41" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="V34" s="42"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="41" t="s">
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="V36" s="42"/>
+      <c r="V36" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3801,21 +3918,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492ABDBB-5A3F-44E5-90C1-551CD7B2C5F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>106</v>
       </c>
@@ -3829,7 +3946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>102</v>
       </c>
@@ -3843,7 +3960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>101</v>
       </c>
@@ -3860,12 +3977,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K6" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>99</v>
       </c>
@@ -3879,10 +3996,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>100</v>
       </c>
@@ -3896,10 +4013,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>78</v>
       </c>
@@ -3913,10 +4030,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>77</v>
       </c>
@@ -3930,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>97</v>
       </c>
@@ -3944,7 +4061,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>79</v>
       </c>
@@ -3952,7 +4069,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
@@ -3960,7 +4077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>81</v>
       </c>
@@ -3972,4 +4089,60 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B24:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J25" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J28" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J30" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>